--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Adora2b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H2">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.71141438452394</v>
+        <v>1.178771</v>
       </c>
       <c r="N2">
-        <v>6.71141438452394</v>
+        <v>3.536313</v>
       </c>
       <c r="O2">
-        <v>0.460624665773655</v>
+        <v>0.04922155471087993</v>
       </c>
       <c r="P2">
-        <v>0.460624665773655</v>
+        <v>0.04922155471087993</v>
       </c>
       <c r="Q2">
-        <v>14.71481232981115</v>
+        <v>2.634402302312</v>
       </c>
       <c r="R2">
-        <v>14.71481232981115</v>
+        <v>23.709620720808</v>
       </c>
       <c r="S2">
-        <v>0.1298087656534267</v>
+        <v>0.01239981344045997</v>
       </c>
       <c r="T2">
-        <v>0.1298087656534267</v>
+        <v>0.01239981344045998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H3">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.27055945402507</v>
+        <v>6.866667333333333</v>
       </c>
       <c r="N3">
-        <v>6.27055945402507</v>
+        <v>20.600002</v>
       </c>
       <c r="O3">
-        <v>0.4303674586663167</v>
+        <v>0.2867291796532818</v>
       </c>
       <c r="P3">
-        <v>0.4303674586663167</v>
+        <v>0.2867291796532818</v>
       </c>
       <c r="Q3">
-        <v>13.74823551078451</v>
+        <v>15.34612255658133</v>
       </c>
       <c r="R3">
-        <v>13.74823551078451</v>
+        <v>138.115103009232</v>
       </c>
       <c r="S3">
-        <v>0.121281973671658</v>
+        <v>0.07223234529101419</v>
       </c>
       <c r="T3">
-        <v>0.121281973671658</v>
+        <v>0.07223234529101423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H4">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.58827148961117</v>
+        <v>14.195986</v>
       </c>
       <c r="N4">
-        <v>1.58827148961117</v>
+        <v>42.587958</v>
       </c>
       <c r="O4">
-        <v>0.1090078755600284</v>
+        <v>0.592777139557968</v>
       </c>
       <c r="P4">
-        <v>0.1090078755600284</v>
+        <v>0.5927771395579681</v>
       </c>
       <c r="Q4">
-        <v>3.482293829495934</v>
+        <v>31.726211623792</v>
       </c>
       <c r="R4">
-        <v>3.482293829495934</v>
+        <v>285.535904614128</v>
       </c>
       <c r="S4">
-        <v>0.03071953984310263</v>
+        <v>0.1493314460598213</v>
       </c>
       <c r="T4">
-        <v>0.03071953984310263</v>
+        <v>0.1493314460598213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.14812814499138</v>
+        <v>2.234872</v>
       </c>
       <c r="H5">
-        <v>3.14812814499138</v>
+        <v>6.704616</v>
       </c>
       <c r="I5">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J5">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.71141438452394</v>
+        <v>1.706844</v>
       </c>
       <c r="N5">
-        <v>6.71141438452394</v>
+        <v>5.120532000000001</v>
       </c>
       <c r="O5">
-        <v>0.460624665773655</v>
+        <v>0.07127212607787022</v>
       </c>
       <c r="P5">
-        <v>0.460624665773655</v>
+        <v>0.07127212607787023</v>
       </c>
       <c r="Q5">
-        <v>21.12839251661982</v>
+        <v>3.814577863968</v>
       </c>
       <c r="R5">
-        <v>21.12839251661982</v>
+        <v>34.33120077571201</v>
       </c>
       <c r="S5">
-        <v>0.186387056209144</v>
+        <v>0.0179547572615618</v>
       </c>
       <c r="T5">
-        <v>0.186387056209144</v>
+        <v>0.01795475726156181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H6">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I6">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J6">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>6.27055945402507</v>
+        <v>1.178771</v>
       </c>
       <c r="N6">
-        <v>6.27055945402507</v>
+        <v>3.536313</v>
       </c>
       <c r="O6">
-        <v>0.4303674586663167</v>
+        <v>0.04922155471087993</v>
       </c>
       <c r="P6">
-        <v>0.4303674586663167</v>
+        <v>0.04922155471087993</v>
       </c>
       <c r="Q6">
-        <v>19.74052470205811</v>
+        <v>3.755065785867</v>
       </c>
       <c r="R6">
-        <v>19.74052470205811</v>
+        <v>33.795592072803</v>
       </c>
       <c r="S6">
-        <v>0.1741437870555586</v>
+        <v>0.01767464109811218</v>
       </c>
       <c r="T6">
-        <v>0.1741437870555586</v>
+        <v>0.01767464109811218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H7">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.58827148961117</v>
+        <v>6.866667333333333</v>
       </c>
       <c r="N7">
-        <v>1.58827148961117</v>
+        <v>20.600002</v>
       </c>
       <c r="O7">
-        <v>0.1090078755600284</v>
+        <v>0.2867291796532818</v>
       </c>
       <c r="P7">
-        <v>0.1090078755600284</v>
+        <v>0.2867291796532818</v>
       </c>
       <c r="Q7">
-        <v>5.000082178332309</v>
+        <v>21.874297523718</v>
       </c>
       <c r="R7">
-        <v>5.000082178332309</v>
+        <v>196.868677713462</v>
       </c>
       <c r="S7">
-        <v>0.04410892107812182</v>
+        <v>0.102959676355117</v>
       </c>
       <c r="T7">
-        <v>0.04410892107812182</v>
+        <v>0.1029596763551171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43944251125924</v>
+        <v>3.185577</v>
       </c>
       <c r="H8">
-        <v>2.43944251125924</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J8">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.71141438452394</v>
+        <v>14.195986</v>
       </c>
       <c r="N8">
-        <v>6.71141438452394</v>
+        <v>42.587958</v>
       </c>
       <c r="O8">
-        <v>0.460624665773655</v>
+        <v>0.592777139557968</v>
       </c>
       <c r="P8">
-        <v>0.460624665773655</v>
+        <v>0.5927771395579681</v>
       </c>
       <c r="Q8">
-        <v>16.37210956028447</v>
+        <v>45.22240649392199</v>
       </c>
       <c r="R8">
-        <v>16.37210956028447</v>
+        <v>407.0016584452979</v>
       </c>
       <c r="S8">
-        <v>0.1444288439110843</v>
+        <v>0.2128564051743936</v>
       </c>
       <c r="T8">
-        <v>0.1444288439110843</v>
+        <v>0.2128564051743936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43944251125924</v>
+        <v>3.185577</v>
       </c>
       <c r="H9">
-        <v>2.43944251125924</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J9">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.27055945402507</v>
+        <v>1.706844</v>
       </c>
       <c r="N9">
-        <v>6.27055945402507</v>
+        <v>5.120532000000001</v>
       </c>
       <c r="O9">
-        <v>0.4303674586663167</v>
+        <v>0.07127212607787022</v>
       </c>
       <c r="P9">
-        <v>0.4303674586663167</v>
+        <v>0.07127212607787023</v>
       </c>
       <c r="Q9">
-        <v>15.29666930152729</v>
+        <v>5.437282988988001</v>
       </c>
       <c r="R9">
-        <v>15.29666930152729</v>
+        <v>48.935546900892</v>
       </c>
       <c r="S9">
-        <v>0.1349416979391</v>
+        <v>0.02559263428644426</v>
       </c>
       <c r="T9">
-        <v>0.1349416979391</v>
+        <v>0.02559263428644427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.157452</v>
+      </c>
+      <c r="I10">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J10">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.178771</v>
+      </c>
+      <c r="N10">
+        <v>3.536313</v>
+      </c>
+      <c r="O10">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="P10">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="Q10">
+        <v>0.4547902838306668</v>
+      </c>
+      <c r="R10">
+        <v>4.093112554476001</v>
+      </c>
+      <c r="S10">
+        <v>0.002140642934104993</v>
+      </c>
+      <c r="T10">
+        <v>0.002140642934104993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.157452</v>
+      </c>
+      <c r="I11">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J11">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.866667333333333</v>
+      </c>
+      <c r="N11">
+        <v>20.600002</v>
+      </c>
+      <c r="O11">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="P11">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="Q11">
+        <v>2.649279279433778</v>
+      </c>
+      <c r="R11">
+        <v>23.843513514904</v>
+      </c>
+      <c r="S11">
+        <v>0.01246983757485514</v>
+      </c>
+      <c r="T11">
+        <v>0.01246983757485515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.157452</v>
+      </c>
+      <c r="I12">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J12">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.195986</v>
+      </c>
+      <c r="N12">
+        <v>42.587958</v>
+      </c>
+      <c r="O12">
+        <v>0.592777139557968</v>
+      </c>
+      <c r="P12">
+        <v>0.5927771395579681</v>
+      </c>
+      <c r="Q12">
+        <v>5.477057462557334</v>
+      </c>
+      <c r="R12">
+        <v>49.29351716301601</v>
+      </c>
+      <c r="S12">
+        <v>0.02577984792937169</v>
+      </c>
+      <c r="T12">
+        <v>0.0257798479293717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.157452</v>
+      </c>
+      <c r="I13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.706844</v>
+      </c>
+      <c r="N13">
+        <v>5.120532000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.07127212607787022</v>
+      </c>
+      <c r="P13">
+        <v>0.07127212607787023</v>
+      </c>
+      <c r="Q13">
+        <v>0.6585300004960002</v>
+      </c>
+      <c r="R13">
+        <v>5.926770004464002</v>
+      </c>
+      <c r="S13">
+        <v>0.003099621171728438</v>
+      </c>
+      <c r="T13">
+        <v>0.003099621171728439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.894691</v>
+      </c>
+      <c r="I14">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J14">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.178771</v>
+      </c>
+      <c r="N14">
+        <v>3.536313</v>
+      </c>
+      <c r="O14">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="P14">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="Q14">
+        <v>0.3515452682536667</v>
+      </c>
+      <c r="R14">
+        <v>3.163907414283</v>
+      </c>
+      <c r="S14">
+        <v>0.001654681116242686</v>
+      </c>
+      <c r="T14">
+        <v>0.001654681116242687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="H10">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="I10">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="J10">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.58827148961117</v>
-      </c>
-      <c r="N10">
-        <v>1.58827148961117</v>
-      </c>
-      <c r="O10">
-        <v>0.1090078755600284</v>
-      </c>
-      <c r="P10">
-        <v>0.1090078755600284</v>
-      </c>
-      <c r="Q10">
-        <v>3.874496991178527</v>
-      </c>
-      <c r="R10">
-        <v>3.874496991178527</v>
-      </c>
-      <c r="S10">
-        <v>0.03417941463880395</v>
-      </c>
-      <c r="T10">
-        <v>0.03417941463880395</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.894691</v>
+      </c>
+      <c r="I15">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J15">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.866667333333333</v>
+      </c>
+      <c r="N15">
+        <v>20.600002</v>
+      </c>
+      <c r="O15">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="P15">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="Q15">
+        <v>2.047848487709111</v>
+      </c>
+      <c r="R15">
+        <v>18.430636389382</v>
+      </c>
+      <c r="S15">
+        <v>0.009638975482080224</v>
+      </c>
+      <c r="T15">
+        <v>0.009638975482080229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.894691</v>
+      </c>
+      <c r="I16">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J16">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.195986</v>
+      </c>
+      <c r="N16">
+        <v>42.587958</v>
+      </c>
+      <c r="O16">
+        <v>0.592777139557968</v>
+      </c>
+      <c r="P16">
+        <v>0.5927771395579681</v>
+      </c>
+      <c r="Q16">
+        <v>4.233673636775333</v>
+      </c>
+      <c r="R16">
+        <v>38.103062730978</v>
+      </c>
+      <c r="S16">
+        <v>0.01992739044364473</v>
+      </c>
+      <c r="T16">
+        <v>0.01992739044364474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.894691</v>
+      </c>
+      <c r="I17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.706844</v>
+      </c>
+      <c r="N17">
+        <v>5.120532000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.07127212607787022</v>
+      </c>
+      <c r="P17">
+        <v>0.07127212607787023</v>
+      </c>
+      <c r="Q17">
+        <v>0.5090326550680001</v>
+      </c>
+      <c r="R17">
+        <v>4.581293895612001</v>
+      </c>
+      <c r="S17">
+        <v>0.002395955223849358</v>
+      </c>
+      <c r="T17">
+        <v>0.00239595522384936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.766917</v>
+      </c>
+      <c r="H18">
+        <v>8.300751</v>
+      </c>
+      <c r="I18">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J18">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.178771</v>
+      </c>
+      <c r="N18">
+        <v>3.536313</v>
+      </c>
+      <c r="O18">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="P18">
+        <v>0.04922155471087993</v>
+      </c>
+      <c r="Q18">
+        <v>3.261561519007</v>
+      </c>
+      <c r="R18">
+        <v>29.354053671063</v>
+      </c>
+      <c r="S18">
+        <v>0.01535177612196009</v>
+      </c>
+      <c r="T18">
+        <v>0.01535177612196009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.766917</v>
+      </c>
+      <c r="H19">
+        <v>8.300751</v>
+      </c>
+      <c r="I19">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J19">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.866667333333333</v>
+      </c>
+      <c r="N19">
+        <v>20.600002</v>
+      </c>
+      <c r="O19">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="P19">
+        <v>0.2867291796532818</v>
+      </c>
+      <c r="Q19">
+        <v>18.99949857794466</v>
+      </c>
+      <c r="R19">
+        <v>170.995487201502</v>
+      </c>
+      <c r="S19">
+        <v>0.08942834495021512</v>
+      </c>
+      <c r="T19">
+        <v>0.08942834495021514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.766917</v>
+      </c>
+      <c r="H20">
+        <v>8.300751</v>
+      </c>
+      <c r="I20">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J20">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.195986</v>
+      </c>
+      <c r="N20">
+        <v>42.587958</v>
+      </c>
+      <c r="O20">
+        <v>0.592777139557968</v>
+      </c>
+      <c r="P20">
+        <v>0.5927771395579681</v>
+      </c>
+      <c r="Q20">
+        <v>39.279114995162</v>
+      </c>
+      <c r="R20">
+        <v>353.512034956458</v>
+      </c>
+      <c r="S20">
+        <v>0.1848820499507366</v>
+      </c>
+      <c r="T20">
+        <v>0.1848820499507366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.766917</v>
+      </c>
+      <c r="H21">
+        <v>8.300751</v>
+      </c>
+      <c r="I21">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J21">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.706844</v>
+      </c>
+      <c r="N21">
+        <v>5.120532000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07127212607787022</v>
+      </c>
+      <c r="P21">
+        <v>0.07127212607787023</v>
+      </c>
+      <c r="Q21">
+        <v>4.722695679948</v>
+      </c>
+      <c r="R21">
+        <v>42.504261119532</v>
+      </c>
+      <c r="S21">
+        <v>0.02222915813428635</v>
+      </c>
+      <c r="T21">
+        <v>0.02222915813428635</v>
       </c>
     </row>
   </sheetData>
